--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2718799.317200847</v>
+        <v>2711873.370119306</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7806544.849123041</v>
+        <v>7806544.849123042</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>287.9769912486387</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>239.0779587142616</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899781</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -798,7 +798,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>47.51605422088343</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>157.6656823846496</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.69575231751244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>269.8948529758709</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>338.8807638850365</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>25.4994482610417</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899781</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>184.4450789924635</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>229.1796259137556</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>277.2631074306324</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>26.36175301344124</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1196,10 +1196,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>74.92558984444302</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.6053465906476</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>15.36279060924227</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>74.07584602384622</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1430,7 +1430,7 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>64.76190287132334</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>19.05992601655501</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135888</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879332</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2725,7 +2725,7 @@
         <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
         <v>59.9324910538045</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080567</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453474</v>
+        <v>20.92391191189563</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443486</v>
+        <v>48.81858568179575</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620407</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046319</v>
+        <v>67.32610467782408</v>
       </c>
       <c r="C34" t="n">
-        <v>58.9166954007456</v>
+        <v>52.47323292810648</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258532</v>
+        <v>38.04694813994621</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546443</v>
+        <v>37.97339019282532</v>
       </c>
       <c r="F34" t="n">
-        <v>46.1663040852317</v>
+        <v>39.72284161259259</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762384</v>
+        <v>50.54167953498472</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419588</v>
+        <v>37.89393170155677</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536781</v>
+        <v>15.7336472827287</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982373</v>
+        <v>6.632145647184615</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535104</v>
+        <v>84.75808915271193</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409216</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059243</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880391</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908632</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H40" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593872</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>211.9305273422576</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
-        <v>316.25865461509</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866448</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822801</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812796</v>
+        <v>68.38158003812813</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459455</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995154</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332848</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460417</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y41" t="n">
-        <v>120.9258281181813</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415629</v>
+        <v>86.88909903415646</v>
       </c>
       <c r="C43" t="n">
-        <v>72.0362272844387</v>
+        <v>72.03622728443887</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627842</v>
+        <v>57.60994249627859</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915753</v>
+        <v>57.5363845491577</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689248</v>
+        <v>59.28583596892497</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131693</v>
+        <v>70.10467389131711</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788898</v>
+        <v>57.45692605788915</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906091</v>
+        <v>35.29664163906108</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351683</v>
+        <v>26.195140003517</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V43" t="n">
-        <v>166.852712257152</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840509</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118667</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>283.8041188054345</v>
+        <v>201.8500712664248</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.25865461509</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866448</v>
+        <v>312.5642884866451</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812794</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459455</v>
+        <v>124.7987569459457</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.218901733285</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111634</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460417</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415626</v>
+        <v>86.88909903415646</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443867</v>
+        <v>72.03622728443887</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627839</v>
+        <v>57.60994249627859</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491575</v>
+        <v>57.5363845491577</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892477</v>
+        <v>59.28583596892497</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131691</v>
+        <v>70.10467389131711</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788895</v>
+        <v>57.45692605788915</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906088</v>
+        <v>35.29664163906108</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035168</v>
+        <v>26.195140003517</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432164</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702863</v>
       </c>
       <c r="V46" t="n">
-        <v>166.852712257152</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779021</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012913</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>493.6900910918847</v>
+        <v>386.5577622333425</v>
       </c>
       <c r="C2" t="n">
-        <v>493.6900910918847</v>
+        <v>386.5577622333425</v>
       </c>
       <c r="D2" t="n">
-        <v>493.6900910918847</v>
+        <v>386.5577622333425</v>
       </c>
       <c r="E2" t="n">
-        <v>493.6900910918847</v>
+        <v>386.5577622333425</v>
       </c>
       <c r="F2" t="n">
-        <v>480.8360566622665</v>
+        <v>373.7037278037243</v>
       </c>
       <c r="G2" t="n">
-        <v>471.7137051906737</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8278554445739</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J2" t="n">
-        <v>132.3210925727561</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>132.3210925727561</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="L2" t="n">
-        <v>625.6413842912849</v>
+        <v>678.4683905259792</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912849</v>
+        <v>1175.56201980414</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.46427368714</v>
+        <v>1676.72880279959</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579468</v>
+        <v>1676.72880279959</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.69136671099</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.54401313746</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.54401313746</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>1863.043410696877</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>1607.290681131476</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>1265.183871834994</v>
+        <v>999.0496848552183</v>
       </c>
       <c r="W2" t="n">
-        <v>894.1848368032815</v>
+        <v>628.0506498235058</v>
       </c>
       <c r="X2" t="n">
-        <v>894.1848368032815</v>
+        <v>628.0506498235058</v>
       </c>
       <c r="Y2" t="n">
-        <v>894.1848368032815</v>
+        <v>386.5577622333425</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512718</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>843.8035578591619</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>1344.970340854612</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.55046658065</v>
+        <v>1523.749511935662</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.55046658065</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297048</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851938</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851938</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606596</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977663</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1208.485603613134</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>1019.178525963146</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>839.8643090386531</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.5442117844732</v>
+        <v>499.3566813363527</v>
       </c>
       <c r="C4" t="n">
-        <v>488.5442117844732</v>
+        <v>329.1515634023419</v>
       </c>
       <c r="D4" t="n">
-        <v>332.9110986869879</v>
+        <v>329.1515634023419</v>
       </c>
       <c r="E4" t="n">
-        <v>332.9110986869879</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="F4" t="n">
-        <v>175.5851638999609</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="G4" t="n">
-        <v>175.5851638999609</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="H4" t="n">
-        <v>175.5851638999609</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>741.1216772611406</v>
+        <v>782.687083405175</v>
       </c>
       <c r="V4" t="n">
-        <v>741.1216772611406</v>
+        <v>782.687083405175</v>
       </c>
       <c r="W4" t="n">
-        <v>741.1216772611406</v>
+        <v>499.3566813363527</v>
       </c>
       <c r="X4" t="n">
-        <v>741.1216772611406</v>
+        <v>499.3566813363527</v>
       </c>
       <c r="Y4" t="n">
-        <v>673.7522304757745</v>
+        <v>499.3566813363527</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>992.2857741695212</v>
+        <v>1516.295930575681</v>
       </c>
       <c r="C5" t="n">
-        <v>992.2857741695212</v>
+        <v>1123.120429078612</v>
       </c>
       <c r="D5" t="n">
-        <v>606.844645386189</v>
+        <v>737.6793002952795</v>
       </c>
       <c r="E5" t="n">
-        <v>606.844645386189</v>
+        <v>335.095775411824</v>
       </c>
       <c r="F5" t="n">
-        <v>189.9502069161667</v>
+        <v>322.2417409822058</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8278554445739</v>
+        <v>313.1193895106131</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445739</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K5" t="n">
-        <v>401.4730945645006</v>
+        <v>344.4168770807344</v>
       </c>
       <c r="L5" t="n">
-        <v>810.4869444322334</v>
+        <v>837.7371687992633</v>
       </c>
       <c r="M5" t="n">
-        <v>1336.309833828088</v>
+        <v>1338.903951794714</v>
       </c>
       <c r="N5" t="n">
-        <v>1336.309833828088</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720417</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851938</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851938</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851938</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.536926851938</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="V5" t="n">
-        <v>2124.536926851938</v>
+        <v>1516.295930575681</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.233124947861</v>
+        <v>1516.295930575681</v>
       </c>
       <c r="X5" t="n">
-        <v>1392.780519880918</v>
+        <v>1516.295930575681</v>
       </c>
       <c r="Y5" t="n">
-        <v>1392.780519880918</v>
+        <v>1516.295930575681</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>615.1204017501418</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>464.4661713102341</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>334.3772039317144</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>334.3772039317144</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>209.9453978148462</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512718</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>475.3448668189926</v>
+        <v>883.7630516643738</v>
       </c>
       <c r="M6" t="n">
-        <v>968.0301839896694</v>
+        <v>883.7630516643738</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896694</v>
+        <v>883.7630516643738</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.55046658065</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297048</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851938</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851938</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851938</v>
+        <v>1975.24223338368</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1798.258421582588</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1588.19527826123</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1365.655276632297</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1135.538030765584</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>946.2309531155959</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>766.9167361911032</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>523.5492782631263</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="C7" t="n">
-        <v>523.5492782631263</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="D7" t="n">
-        <v>523.5492782631263</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760992</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755448</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703877</v>
+        <v>40.49832589862224</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>706.2262966084087</v>
       </c>
       <c r="U7" t="n">
-        <v>757.6296004801433</v>
+        <v>706.2262966084087</v>
       </c>
       <c r="V7" t="n">
-        <v>757.6296004801433</v>
+        <v>440.2469514292329</v>
       </c>
       <c r="W7" t="n">
-        <v>757.6296004801433</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="X7" t="n">
-        <v>523.5492782631263</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="Y7" t="n">
-        <v>523.5492782631263</v>
+        <v>208.7523797991767</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.28935600275456</v>
+        <v>824.0408438235784</v>
       </c>
       <c r="C8" t="n">
-        <v>69.28935600275456</v>
+        <v>824.0408438235784</v>
       </c>
       <c r="D8" t="n">
-        <v>69.28935600275456</v>
+        <v>797.412810476668</v>
       </c>
       <c r="E8" t="n">
-        <v>69.28935600275456</v>
+        <v>797.412810476668</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>1506.295450060236</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>1135.296415028523</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X8" t="n">
-        <v>745.8438099615802</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y8" t="n">
-        <v>349.3531008821813</v>
+        <v>1224.535589534975</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1029.265125924707</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>256.0898094487516</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>256.0898094487516</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>256.0898094487516</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>539.420211517574</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>539.420211517574</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="W10" t="n">
-        <v>256.0898094487516</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X10" t="n">
-        <v>256.0898094487516</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>256.0898094487516</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1596.22939799694</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1297.994577787059</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>409.4820193635578</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5072,19 +5072,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2497.845413993114</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2203.333490213359</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1901.783462421149</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
         <v>234.1241141445331</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5209,13 +5209,13 @@
         <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1254.754980746029</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>964.2545332498846</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>656.6116896536174</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707835</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244626</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3086.703934684003</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2958.144013530608</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2958.144013530608</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2710.977885521314</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.91953177679</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O15" t="n">
         <v>2380.454662679751</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445335</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798492</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862324</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099308</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5789,13 +5789,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>2146.089571124861</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5920,40 +5920,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>845.847430707221</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,34 +6139,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6239,10 +6239,10 @@
         <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6312,13 +6312,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.335302368295</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6549,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.335302368295</v>
+        <v>1645.563044338376</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6607,28 +6607,28 @@
         <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796863</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144918</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423738</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267647</v>
+        <v>87.68547930209922</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>326.0695231417556</v>
       </c>
       <c r="K32" t="n">
-        <v>669.9452253061295</v>
+        <v>685.0518791692174</v>
       </c>
       <c r="L32" t="n">
-        <v>1271.756024665044</v>
+        <v>1178.372170887746</v>
       </c>
       <c r="M32" t="n">
-        <v>1926.247432350011</v>
+        <v>1826.626800429184</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987473</v>
+        <v>2354.438084066646</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879801</v>
+        <v>2794.477684958974</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011323</v>
+        <v>3142.665177090496</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152271</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491226</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448547</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079624</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>663.2312828626696</v>
       </c>
       <c r="M33" t="n">
-        <v>1612.734491189994</v>
+        <v>1291.002932489351</v>
       </c>
       <c r="N33" t="n">
-        <v>2152.513070803791</v>
+        <v>1946.78090369991</v>
       </c>
       <c r="O33" t="n">
-        <v>2152.513070803791</v>
+        <v>1946.78090369991</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590197</v>
+        <v>341.6872565554782</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229131</v>
+        <v>288.6839909715322</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233319</v>
+        <v>250.2527302241118</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804386</v>
+        <v>211.8957704333792</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913156</v>
+        <v>171.771687996417</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886653</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806342</v>
+        <v>82.44278775748616</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304543</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>258.8681761333731</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>531.4863236475587</v>
+        <v>312.5128957283705</v>
       </c>
       <c r="M34" t="n">
-        <v>826.2684096262085</v>
+        <v>512.6542818348637</v>
       </c>
       <c r="N34" t="n">
-        <v>1117.948551297804</v>
+        <v>810.7134513543715</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245665</v>
+        <v>1088.287753884378</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022243</v>
+        <v>1208.163919660957</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392294</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422775</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003229</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.388144144827</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279004</v>
+        <v>798.610651315716</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569822</v>
+        <v>632.4821015969585</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378694</v>
+        <v>515.6036317300064</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524169</v>
+        <v>409.6934228967147</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7193,31 +7193,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N39" t="n">
-        <v>2146.089571124861</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H40" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,43 +7339,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343036</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161904</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330091</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1517.077765835765</v>
+        <v>1772.044870492822</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835765</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042566</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492439</v>
+        <v>964.8314810666467</v>
       </c>
       <c r="F41" t="n">
-        <v>604.482429669355</v>
+        <v>645.3782945867575</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474915</v>
+        <v>329.6567910648938</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215176</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,19 +7442,19 @@
         <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2752.513254111243</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="V41" t="n">
-        <v>2507.847696804894</v>
+        <v>2666.159174380161</v>
       </c>
       <c r="W41" t="n">
-        <v>2234.289913763315</v>
+        <v>2666.159174380161</v>
       </c>
       <c r="X41" t="n">
-        <v>1942.278560686505</v>
+        <v>2374.147821303352</v>
       </c>
       <c r="Y41" t="n">
-        <v>1820.131259557029</v>
+        <v>2075.098364214086</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7494,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344855</v>
+        <v>475.5803720344867</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906081</v>
+        <v>402.8165060906091</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832561</v>
+        <v>344.624644983257</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325919</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356982</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G43" t="n">
-        <v>155.809600125277</v>
+        <v>155.8096001252774</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690433</v>
+        <v>97.7723010769045</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676792</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170081</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308022</v>
+        <v>846.6083287308015</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1125.30013383754</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954779</v>
+        <v>1383.507071954778</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792117</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237697</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.35960103309</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423492</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557604</v>
+        <v>825.6570181557621</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288769</v>
+        <v>689.0179479288784</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356535</v>
+        <v>563.3471387356549</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1584.841167182324</v>
+        <v>1409.24791294479</v>
       </c>
       <c r="C44" t="n">
-        <v>1289.106917675388</v>
+        <v>1113.513663437854</v>
       </c>
       <c r="D44" t="n">
-        <v>1002.43609059919</v>
+        <v>909.6247025626778</v>
       </c>
       <c r="E44" t="n">
-        <v>697.2938177058679</v>
+        <v>604.4824296693555</v>
       </c>
       <c r="F44" t="n">
-        <v>377.840631225979</v>
+        <v>604.4824296693555</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411553</v>
+        <v>288.7609261474918</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111243</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2752.513254111243</v>
+        <v>2576.919999873709</v>
       </c>
       <c r="W44" t="n">
-        <v>2478.955471069663</v>
+        <v>2303.36221683213</v>
       </c>
       <c r="X44" t="n">
-        <v>2186.944117992854</v>
+        <v>2011.35086375532</v>
       </c>
       <c r="Y44" t="n">
-        <v>1887.894660903588</v>
+        <v>1712.301406666054</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N45" t="n">
-        <v>2146.089571124861</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344853</v>
+        <v>475.5803720344867</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906078</v>
+        <v>402.8165060906091</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832559</v>
+        <v>344.624644983257</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325918</v>
+        <v>286.5070848325926</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356981</v>
+        <v>226.6224020356987</v>
       </c>
       <c r="G46" t="n">
-        <v>155.809600125277</v>
+        <v>155.8096001252774</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769043</v>
+        <v>97.7723010769045</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822075</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676793</v>
+        <v>305.1847683676789</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022376</v>
+        <v>564.8145793170081</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160313</v>
+        <v>846.6083287308015</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.68452782277</v>
+        <v>1125.30013383754</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940008</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792116</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237697</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860407</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.35960103309</v>
+        <v>1506.359601033093</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191457</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423492</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234449</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557601</v>
+        <v>825.6570181557621</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288765</v>
+        <v>689.0179479288784</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356533</v>
+        <v>563.3471387356549</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>208.4175692915555</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>651.8398286463747</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507687</v>
+        <v>655.3475650705622</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820899</v>
       </c>
       <c r="N3" t="n">
-        <v>616.3211167565348</v>
+        <v>265.9571341481563</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>450.0468387167244</v>
       </c>
       <c r="L5" t="n">
-        <v>566.3934726271914</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107118</v>
+        <v>655.9541253305053</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705622</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>504.6165059314615</v>
       </c>
       <c r="M6" t="n">
-        <v>590.049058585349</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.916632621667</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>223.8267004481029</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>272.8385602943859</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9006,7 +9006,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9018,7 +9018,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>212.2488719779076</v>
+        <v>550.900652917313</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>351.8313913012159</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,25 +9717,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,16 +9960,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>630.6030013529513</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>630.6030013529513</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>199.9106794075975</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10428,7 +10428,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,13 +10437,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>630.6030013529518</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>292.8810966026122</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10665,7 +10665,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10902,7 +10902,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10911,16 +10911,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>630.6030013529515</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,19 +11142,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>168.5060516210921</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>272.2326524119402</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>240.9640074587141</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>230.4905691364589</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>51.79721901748849</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-5.613700051435072e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118667</v>
+        <v>80.84637966960926</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822784</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25682,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995156</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>175.1331344001916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25868,22 +25868,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.315759219832444</v>
+        <v>83.26980675884232</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589422</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822781</v>
+        <v>40.48690626822801</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812813</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332848</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>685262.2767547554</v>
+        <v>685262.2767547555</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>646817.2995711723</v>
+        <v>646817.299571172</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>646817.2995711721</v>
+        <v>646817.299571172</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>577062.9698987417</v>
       </c>
       <c r="C2" t="n">
-        <v>577062.9698987417</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="D2" t="n">
         <v>577062.9698987417</v>
       </c>
       <c r="E2" t="n">
-        <v>542323.5925863626</v>
+        <v>542323.5925863618</v>
       </c>
       <c r="F2" t="n">
-        <v>542323.5925863622</v>
+        <v>542323.5925863624</v>
       </c>
       <c r="G2" t="n">
+        <v>577062.9698987413</v>
+      </c>
+      <c r="H2" t="n">
+        <v>577062.9698987413</v>
+      </c>
+      <c r="I2" t="n">
         <v>577062.9698987417</v>
-      </c>
-      <c r="H2" t="n">
-        <v>577062.9698987417</v>
-      </c>
-      <c r="I2" t="n">
-        <v>577062.9698987418</v>
       </c>
       <c r="J2" t="n">
         <v>577062.9698987405</v>
       </c>
       <c r="K2" t="n">
-        <v>577062.9698987404</v>
+        <v>577062.9698987406</v>
       </c>
       <c r="L2" t="n">
+        <v>577062.9698987424</v>
+      </c>
+      <c r="M2" t="n">
+        <v>577062.9698987416</v>
+      </c>
+      <c r="N2" t="n">
         <v>577062.9698987415</v>
       </c>
-      <c r="M2" t="n">
-        <v>577062.9698987417</v>
-      </c>
-      <c r="N2" t="n">
-        <v>577062.9698987417</v>
-      </c>
       <c r="O2" t="n">
-        <v>544688.2522704609</v>
+        <v>544688.2522704608</v>
       </c>
       <c r="P2" t="n">
-        <v>544688.2522704606</v>
+        <v>544688.2522704607</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343505</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602672</v>
+        <v>26460.41160941829</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301441</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469664</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670125</v>
+        <v>46725.80335481259</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436849</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015693</v>
+        <v>18983.5598301567</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170591.5484883816</v>
+        <v>177303.7227646048</v>
       </c>
       <c r="C4" t="n">
-        <v>170591.5484883816</v>
+        <v>177303.7227646048</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183773</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="F4" t="n">
         <v>97239.09137183768</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122271.0498250416</v>
+        <v>122137.6552159869</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>98913.70727082915</v>
+        <v>98913.70727082901</v>
       </c>
       <c r="P4" t="n">
-        <v>98913.70727082918</v>
+        <v>98913.70727082901</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814946</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="H5" t="n">
-        <v>58169.76931551966</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446765</v>
+        <v>60332.67530588338</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255071</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162555.5629878601</v>
+        <v>165703.9135746342</v>
       </c>
       <c r="C6" t="n">
-        <v>340550.8601222106</v>
+        <v>335352.9194511839</v>
       </c>
       <c r="D6" t="n">
-        <v>334407.3011651376</v>
+        <v>326671.0119417459</v>
       </c>
       <c r="E6" t="n">
-        <v>259519.2805679036</v>
+        <v>259410.7200138016</v>
       </c>
       <c r="F6" t="n">
-        <v>389972.2117056154</v>
+        <v>389863.6511515144</v>
       </c>
       <c r="G6" t="n">
-        <v>367954.832694888</v>
+        <v>367954.8326948876</v>
       </c>
       <c r="H6" t="n">
-        <v>397049.7885679023</v>
+        <v>397049.788567902</v>
       </c>
       <c r="I6" t="n">
         <v>397049.7885679025</v>
       </c>
       <c r="J6" t="n">
-        <v>168964.1452181519</v>
+        <v>175480.430372725</v>
       </c>
       <c r="K6" t="n">
-        <v>390810.0201651181</v>
+        <v>390810.0201651184</v>
       </c>
       <c r="L6" t="n">
-        <v>351915.6732325309</v>
+        <v>347866.8360220595</v>
       </c>
       <c r="M6" t="n">
-        <v>354318.5116335339</v>
+        <v>353266.8166223455</v>
       </c>
       <c r="N6" t="n">
-        <v>397049.7885679023</v>
+        <v>397049.7885679021</v>
       </c>
       <c r="O6" t="n">
-        <v>371470.5773869241</v>
+        <v>371369.406394336</v>
       </c>
       <c r="P6" t="n">
-        <v>390454.1372170807</v>
+        <v>390352.9662244926</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26713,19 +26713,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="P2" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880679</v>
+        <v>831.8776843078612</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126801</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087656</v>
+        <v>58.40725419351574</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165928</v>
+        <v>14.33013548902019</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769617</v>
+        <v>23.72944978769587</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559186</v>
+        <v>646.8007142757122</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455252</v>
+        <v>129.6883820257319</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126801</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631046</v>
+        <v>85.18305253651704</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>32.86522868053549</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>153.4478432743433</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.6672101940828</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>180.3000191871626</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27585,25 +27585,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>124.9187214558685</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.1851882540106</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>50.94736695330329</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,13 +27673,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>28.40828079635889</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>108.0819220680881</v>
       </c>
       <c r="T6" t="n">
-        <v>76.6672101940828</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>98.13932484805454</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>51.31747213437851</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.2266908236505</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>355.2249644820577</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>79.07763417494648</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28029,7 +28029,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>107.7142051367364</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>128.2979821082767</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28992,13 +28992,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634527671</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>35.71049010668816</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29311,13 +29311,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901221</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29533,25 +29533,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K32" t="n">
-        <v>98.75804948161021</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539251</v>
+        <v>103.2865954513705</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>13.9897048163931</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="O34" t="n">
-        <v>28.92237465267985</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30265,31 +30265,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-1.222133505507372e-12</v>
       </c>
       <c r="R38" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155851</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.636002634527699</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="P43" t="n">
-        <v>36.24905561692853</v>
+        <v>36.24905561693242</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="C46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="D46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="E46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="F46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="G46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="H46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="I46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="J46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="K46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="L46" t="n">
-        <v>36.24905561692776</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="M46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="N46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="O46" t="n">
-        <v>96.466839470232</v>
+        <v>36.2490556169324</v>
       </c>
       <c r="P46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="R46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="S46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="T46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="U46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="V46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="W46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="X46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.466839470232</v>
+        <v>96.4668394702318</v>
       </c>
     </row>
   </sheetData>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90.7377313492094</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>502.1147770486475</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.229073732778</v>
       </c>
       <c r="N3" t="n">
-        <v>530.9490039023682</v>
+        <v>180.5850212939897</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>306.9884355374871</v>
       </c>
       <c r="L5" t="n">
-        <v>413.1453028966997</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129846</v>
+        <v>506.229073732778</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>506.229073732778</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>414.5561590745432</v>
       </c>
       <c r="M6" t="n">
-        <v>497.6619365360371</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.229073732778</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>74.26286302400655</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>180.451438245074</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35726,7 +35726,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35738,7 +35738,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>119.5613130890187</v>
+        <v>458.2130940284241</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,13 +36048,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453556</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>259.444269251904</v>
       </c>
       <c r="N21" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,13 +36288,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094865</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36370,7 +36370,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O23" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P23" t="n">
         <v>351.7045375065877</v>
@@ -36437,25 +36437,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N24" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36607,13 +36607,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36680,16 +36680,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>545.2308884987847</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272236</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>545.2308884987847</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>107.2231205187086</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>262.1407155526532</v>
       </c>
       <c r="K32" t="n">
-        <v>461.3664899133898</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.889696322136</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050166</v>
+        <v>654.802656102462</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37148,7 +37148,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,13 +37157,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>545.2308884987851</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.248029040735</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759451</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>202.1630162691851</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288839</v>
+        <v>301.069868201523</v>
       </c>
       <c r="O34" t="n">
-        <v>193.2706241897587</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>119.4865978367167</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257368</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110579</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37631,16 +37631,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>545.2308884987849</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873196</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807291</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.640150923024</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>157.3360917548867</v>
+        <v>157.3360917548906</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038446</v>
+        <v>99.92360348038429</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>75.81849273220321</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807294</v>
+        <v>66.39235199807274</v>
       </c>
       <c r="K46" t="n">
-        <v>179.128497157042</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>202.0345504389477</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.640150923024</v>
+        <v>284.6401509230237</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451908</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073109</v>
+        <v>200.5973051540113</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081902</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038449</v>
+        <v>99.92360348038429</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
